--- a/src/data/Arab States/Mining.xlsx
+++ b/src/data/Arab States/Mining.xlsx
@@ -1411,10 +1411,10 @@
         <v>15000</v>
       </c>
       <c r="AQ2">
-        <v>13568.17</v>
+        <v>12517.75</v>
       </c>
       <c r="AR2">
-        <v>11834.28</v>
+        <v>11632.6</v>
       </c>
       <c r="AS2" t="s">
         <v>142</v>
@@ -1423,10 +1423,10 @@
         <v>15000</v>
       </c>
       <c r="AU2">
-        <v>12541.02</v>
+        <v>12700.2</v>
       </c>
       <c r="AV2">
-        <v>8271.200000000001</v>
+        <v>9982.969999999999</v>
       </c>
       <c r="AW2" t="s">
         <v>142</v>
@@ -1435,10 +1435,10 @@
         <v>15000</v>
       </c>
       <c r="AY2">
-        <v>13187.78</v>
+        <v>10330.99</v>
       </c>
       <c r="AZ2">
-        <v>9713.83</v>
+        <v>8316.559999999999</v>
       </c>
       <c r="BA2" t="s">
         <v>142</v>
@@ -1447,10 +1447,10 @@
         <v>15000</v>
       </c>
       <c r="BC2">
-        <v>11793.51</v>
+        <v>10333.89</v>
       </c>
       <c r="BD2">
-        <v>10657.58</v>
+        <v>9817.190000000001</v>
       </c>
       <c r="BE2" t="s">
         <v>142</v>
@@ -1459,10 +1459,10 @@
         <v>15000</v>
       </c>
       <c r="BG2">
-        <v>12053.44</v>
+        <v>11735.91</v>
       </c>
       <c r="BH2">
-        <v>7466.4</v>
+        <v>8436.84</v>
       </c>
       <c r="BI2" t="s">
         <v>142</v>
@@ -1471,10 +1471,10 @@
         <v>15000</v>
       </c>
       <c r="BK2">
-        <v>9502.110000000001</v>
+        <v>12027.67</v>
       </c>
       <c r="BL2">
-        <v>7912.84</v>
+        <v>7728.87</v>
       </c>
       <c r="BM2" t="s">
         <v>142</v>
@@ -1483,10 +1483,10 @@
         <v>15000</v>
       </c>
       <c r="BO2">
-        <v>13318.3</v>
+        <v>13134.55</v>
       </c>
       <c r="BP2">
-        <v>10635.56</v>
+        <v>9210.51</v>
       </c>
       <c r="BQ2" t="s">
         <v>142</v>
@@ -1495,10 +1495,10 @@
         <v>15000</v>
       </c>
       <c r="BS2">
-        <v>13561.8</v>
+        <v>9702.870000000001</v>
       </c>
       <c r="BT2">
-        <v>10429.45</v>
+        <v>9217.73</v>
       </c>
       <c r="BU2" t="s">
         <v>142</v>
@@ -1507,10 +1507,10 @@
         <v>15000</v>
       </c>
       <c r="BW2">
-        <v>10178.32</v>
+        <v>10103.08</v>
       </c>
       <c r="BX2">
-        <v>6485.46</v>
+        <v>9380.530000000001</v>
       </c>
       <c r="BY2" t="s">
         <v>142</v>
@@ -1519,10 +1519,10 @@
         <v>15000</v>
       </c>
       <c r="CA2">
-        <v>11926.22</v>
+        <v>12197.59</v>
       </c>
       <c r="CB2">
-        <v>8374.059999999999</v>
+        <v>9733.299999999999</v>
       </c>
       <c r="CC2" t="s">
         <v>142</v>
@@ -1653,10 +1653,10 @@
         <v>256612</v>
       </c>
       <c r="AQ3">
-        <v>159171.01</v>
+        <v>218880.2</v>
       </c>
       <c r="AR3">
-        <v>142802.16</v>
+        <v>163444.67</v>
       </c>
       <c r="AS3" t="s">
         <v>142</v>
@@ -1665,10 +1665,10 @@
         <v>256612</v>
       </c>
       <c r="AU3">
-        <v>204454.32</v>
+        <v>221505.73</v>
       </c>
       <c r="AV3">
-        <v>172288.05</v>
+        <v>153017.33</v>
       </c>
       <c r="AW3" t="s">
         <v>142</v>
@@ -1677,10 +1677,10 @@
         <v>256612</v>
       </c>
       <c r="AY3">
-        <v>208622.88</v>
+        <v>218969.81</v>
       </c>
       <c r="AZ3">
-        <v>151765.91</v>
+        <v>184252.43</v>
       </c>
       <c r="BA3" t="s">
         <v>142</v>
@@ -1689,10 +1689,10 @@
         <v>256612</v>
       </c>
       <c r="BC3">
-        <v>206035.1</v>
+        <v>220846.44</v>
       </c>
       <c r="BD3">
-        <v>181390.09</v>
+        <v>169686.38</v>
       </c>
       <c r="BE3" t="s">
         <v>142</v>
@@ -1701,10 +1701,10 @@
         <v>256612</v>
       </c>
       <c r="BG3">
-        <v>238392.55</v>
+        <v>213902.15</v>
       </c>
       <c r="BH3">
-        <v>153309.88</v>
+        <v>165149.34</v>
       </c>
       <c r="BI3" t="s">
         <v>142</v>
@@ -1713,10 +1713,10 @@
         <v>256612</v>
       </c>
       <c r="BK3">
-        <v>169891.73</v>
+        <v>183500.01</v>
       </c>
       <c r="BL3">
-        <v>126188.41</v>
+        <v>155792.27</v>
       </c>
       <c r="BM3" t="s">
         <v>142</v>
@@ -1725,10 +1725,10 @@
         <v>256612</v>
       </c>
       <c r="BO3">
-        <v>208604.76</v>
+        <v>201246.61</v>
       </c>
       <c r="BP3">
-        <v>150413.52</v>
+        <v>176151.53</v>
       </c>
       <c r="BQ3" t="s">
         <v>142</v>
@@ -1737,10 +1737,10 @@
         <v>256612</v>
       </c>
       <c r="BS3">
-        <v>183639.33</v>
+        <v>197009.04</v>
       </c>
       <c r="BT3">
-        <v>158974.75</v>
+        <v>187158.59</v>
       </c>
       <c r="BU3" t="s">
         <v>142</v>
@@ -1749,10 +1749,10 @@
         <v>256612</v>
       </c>
       <c r="BW3">
-        <v>171640.05</v>
+        <v>224175.49</v>
       </c>
       <c r="BX3">
-        <v>137030.76</v>
+        <v>166896.74</v>
       </c>
       <c r="BY3" t="s">
         <v>142</v>
@@ -1761,10 +1761,10 @@
         <v>256612</v>
       </c>
       <c r="CA3">
-        <v>240274.54</v>
+        <v>186046.77</v>
       </c>
       <c r="CB3">
-        <v>215871.49</v>
+        <v>156028.05</v>
       </c>
       <c r="CC3" t="s">
         <v>142</v>
@@ -1883,10 +1883,10 @@
         <v>1000000</v>
       </c>
       <c r="AQ4">
-        <v>601570.84</v>
+        <v>854589.54</v>
       </c>
       <c r="AR4">
-        <v>384991.36</v>
+        <v>786659.5699999999</v>
       </c>
       <c r="AS4" t="s">
         <v>142</v>
@@ -1895,10 +1895,10 @@
         <v>1000000</v>
       </c>
       <c r="AU4">
-        <v>704638.1899999999</v>
+        <v>925874.5</v>
       </c>
       <c r="AV4">
-        <v>615152.66</v>
+        <v>706721.83</v>
       </c>
       <c r="AW4" t="s">
         <v>142</v>
@@ -1907,10 +1907,10 @@
         <v>1000000</v>
       </c>
       <c r="AY4">
-        <v>948586.45</v>
+        <v>807741.47</v>
       </c>
       <c r="AZ4">
-        <v>591679.5</v>
+        <v>694088.78</v>
       </c>
       <c r="BA4" t="s">
         <v>142</v>
@@ -1919,10 +1919,10 @@
         <v>7372000</v>
       </c>
       <c r="BC4">
-        <v>6933984.8</v>
+        <v>6039729.12</v>
       </c>
       <c r="BD4">
-        <v>6112980.14</v>
+        <v>4545141.83</v>
       </c>
       <c r="BE4" t="s">
         <v>142</v>
@@ -1931,10 +1931,10 @@
         <v>900000</v>
       </c>
       <c r="BG4">
-        <v>839752.58</v>
+        <v>672332.84</v>
       </c>
       <c r="BH4">
-        <v>732554.1</v>
+        <v>466260.76</v>
       </c>
       <c r="BI4" t="s">
         <v>142</v>
@@ -1943,10 +1943,10 @@
         <v>750000</v>
       </c>
       <c r="BK4">
-        <v>614207.9399999999</v>
+        <v>550436.36</v>
       </c>
       <c r="BL4">
-        <v>447001.46</v>
+        <v>475968.28</v>
       </c>
       <c r="BM4" t="s">
         <v>142</v>
@@ -1955,10 +1955,10 @@
         <v>100000</v>
       </c>
       <c r="BO4">
-        <v>67056.57000000001</v>
+        <v>76551.61</v>
       </c>
       <c r="BP4">
-        <v>50922.98</v>
+        <v>53440.58</v>
       </c>
       <c r="BQ4" t="s">
         <v>142</v>
@@ -1967,10 +1967,10 @@
         <v>100000</v>
       </c>
       <c r="BS4">
-        <v>74613.64</v>
+        <v>84023.3</v>
       </c>
       <c r="BT4">
-        <v>64024.78</v>
+        <v>68088.89</v>
       </c>
       <c r="BU4" t="s">
         <v>142</v>
@@ -1979,10 +1979,10 @@
         <v>100000</v>
       </c>
       <c r="BW4">
-        <v>84731.31</v>
+        <v>88757.41</v>
       </c>
       <c r="BX4">
-        <v>72749.77</v>
+        <v>65014.04</v>
       </c>
       <c r="BY4" t="s">
         <v>142</v>
@@ -1991,10 +1991,10 @@
         <v>100000</v>
       </c>
       <c r="CA4">
-        <v>88115.77</v>
+        <v>74191.94</v>
       </c>
       <c r="CB4">
-        <v>77839.13</v>
+        <v>63326.22</v>
       </c>
       <c r="CC4" t="s">
         <v>142</v>
@@ -2113,10 +2113,10 @@
         <v>2191070</v>
       </c>
       <c r="AQ5">
-        <v>1357099.66</v>
+        <v>1999439.44</v>
       </c>
       <c r="AR5">
-        <v>1041853.52</v>
+        <v>1512661.76</v>
       </c>
       <c r="AS5" t="s">
         <v>142</v>
@@ -2125,10 +2125,10 @@
         <v>2191070</v>
       </c>
       <c r="AU5">
-        <v>1645811.29</v>
+        <v>1616095.77</v>
       </c>
       <c r="AV5">
-        <v>1081167.81</v>
+        <v>1380245.19</v>
       </c>
       <c r="AW5" t="s">
         <v>142</v>
@@ -2137,10 +2137,10 @@
         <v>2191070</v>
       </c>
       <c r="AY5">
-        <v>1999522.53</v>
+        <v>1718790.98</v>
       </c>
       <c r="AZ5">
-        <v>1251884.75</v>
+        <v>1319422.06</v>
       </c>
       <c r="BA5" t="s">
         <v>142</v>
@@ -2149,10 +2149,10 @@
         <v>2000000</v>
       </c>
       <c r="BC5">
-        <v>1420751.73</v>
+        <v>1572634.42</v>
       </c>
       <c r="BD5">
-        <v>911475.87</v>
+        <v>1402964.85</v>
       </c>
       <c r="BE5" t="s">
         <v>214</v>
@@ -2161,10 +2161,10 @@
         <v>1500000</v>
       </c>
       <c r="BG5">
-        <v>1334708.34</v>
+        <v>1312668.34</v>
       </c>
       <c r="BH5">
-        <v>881552.01</v>
+        <v>923950.4</v>
       </c>
       <c r="BI5" t="s">
         <v>142</v>
@@ -2173,10 +2173,10 @@
         <v>7464999</v>
       </c>
       <c r="BK5">
-        <v>5474154.45</v>
+        <v>5053456.92</v>
       </c>
       <c r="BL5">
-        <v>4900820.83</v>
+        <v>4544719.3</v>
       </c>
       <c r="BM5" t="s">
         <v>142</v>
@@ -2185,10 +2185,10 @@
         <v>13129038</v>
       </c>
       <c r="BO5">
-        <v>10898522.63</v>
+        <v>8489728.050000001</v>
       </c>
       <c r="BP5">
-        <v>10347740.73</v>
+        <v>6871580.15</v>
       </c>
       <c r="BQ5" t="s">
         <v>142</v>
@@ -2197,10 +2197,10 @@
         <v>1174604</v>
       </c>
       <c r="BS5">
-        <v>998333.73</v>
+        <v>1013325.7</v>
       </c>
       <c r="BT5">
-        <v>851702.47</v>
+        <v>820141.11</v>
       </c>
       <c r="BU5" t="s">
         <v>142</v>
@@ -2209,10 +2209,10 @@
         <v>1174604</v>
       </c>
       <c r="BW5">
-        <v>856924.27</v>
+        <v>1026843.72</v>
       </c>
       <c r="BX5">
-        <v>790670.46</v>
+        <v>666935.87</v>
       </c>
       <c r="BY5" t="s">
         <v>142</v>
@@ -2221,10 +2221,10 @@
         <v>1174604</v>
       </c>
       <c r="CA5">
-        <v>1070930</v>
+        <v>911370.23</v>
       </c>
       <c r="CB5">
-        <v>966860.8100000001</v>
+        <v>622457.8</v>
       </c>
       <c r="CC5" t="s">
         <v>142</v>
@@ -2343,10 +2343,10 @@
         <v>1575201</v>
       </c>
       <c r="AQ6">
-        <v>1377383.2</v>
+        <v>1318551.35</v>
       </c>
       <c r="AR6">
-        <v>912500.8100000001</v>
+        <v>977460.63</v>
       </c>
       <c r="AS6" t="s">
         <v>142</v>
@@ -2355,10 +2355,10 @@
         <v>1575201</v>
       </c>
       <c r="AU6">
-        <v>1052501.29</v>
+        <v>1397117.75</v>
       </c>
       <c r="AV6">
-        <v>734240.1</v>
+        <v>917238.36</v>
       </c>
       <c r="AW6" t="s">
         <v>142</v>
@@ -2367,10 +2367,10 @@
         <v>1575201</v>
       </c>
       <c r="AY6">
-        <v>968385.12</v>
+        <v>1178791.77</v>
       </c>
       <c r="AZ6">
-        <v>899609.28</v>
+        <v>968004.9300000001</v>
       </c>
       <c r="BA6" t="s">
         <v>142</v>
@@ -2379,10 +2379,10 @@
         <v>589130</v>
       </c>
       <c r="BC6">
-        <v>409717.17</v>
+        <v>472094.8</v>
       </c>
       <c r="BD6">
-        <v>340875.22</v>
+        <v>383929.41</v>
       </c>
       <c r="BE6" t="s">
         <v>215</v>
@@ -2391,10 +2391,10 @@
         <v>589130</v>
       </c>
       <c r="BG6">
-        <v>491556.22</v>
+        <v>457626.83</v>
       </c>
       <c r="BH6">
-        <v>435506.65</v>
+        <v>403196.82</v>
       </c>
       <c r="BI6" t="s">
         <v>142</v>
@@ -2403,10 +2403,10 @@
         <v>903148</v>
       </c>
       <c r="BK6">
-        <v>639647.97</v>
+        <v>611402.13</v>
       </c>
       <c r="BL6">
-        <v>530471.58</v>
+        <v>466345.64</v>
       </c>
       <c r="BM6" t="s">
         <v>142</v>
@@ -2415,10 +2415,10 @@
         <v>500000</v>
       </c>
       <c r="BO6">
-        <v>443019.29</v>
+        <v>420114.17</v>
       </c>
       <c r="BP6">
-        <v>333153.94</v>
+        <v>363507.78</v>
       </c>
       <c r="BQ6" t="s">
         <v>142</v>
@@ -2427,10 +2427,10 @@
         <v>429168</v>
       </c>
       <c r="BS6">
-        <v>386248.05</v>
+        <v>378665.4</v>
       </c>
       <c r="BT6">
-        <v>346441.24</v>
+        <v>316182.95</v>
       </c>
       <c r="BU6" t="s">
         <v>142</v>
@@ -2439,10 +2439,10 @@
         <v>429168</v>
       </c>
       <c r="BW6">
-        <v>306878.65</v>
+        <v>320265.73</v>
       </c>
       <c r="BX6">
-        <v>196064.1</v>
+        <v>218946.9</v>
       </c>
       <c r="BY6" t="s">
         <v>142</v>
@@ -2451,10 +2451,10 @@
         <v>429168</v>
       </c>
       <c r="CA6">
-        <v>396925.74</v>
+        <v>389930.1</v>
       </c>
       <c r="CB6">
-        <v>367961.36</v>
+        <v>370433.59</v>
       </c>
       <c r="CC6" t="s">
         <v>142</v>
@@ -2576,10 +2576,10 @@
         <v>1488621</v>
       </c>
       <c r="AQ7">
-        <v>1295130.43</v>
+        <v>1100343.8</v>
       </c>
       <c r="AR7">
-        <v>860903.86</v>
+        <v>896947.91</v>
       </c>
       <c r="AS7" t="s">
         <v>142</v>
@@ -2588,10 +2588,10 @@
         <v>1488621</v>
       </c>
       <c r="AU7">
-        <v>975559.13</v>
+        <v>1324304.55</v>
       </c>
       <c r="AV7">
-        <v>777541.9399999999</v>
+        <v>1211849.59</v>
       </c>
       <c r="AW7" t="s">
         <v>142</v>
@@ -2600,10 +2600,10 @@
         <v>1488621</v>
       </c>
       <c r="AY7">
-        <v>1345041.54</v>
+        <v>1327096.05</v>
       </c>
       <c r="AZ7">
-        <v>977235.37</v>
+        <v>1060798.08</v>
       </c>
       <c r="BA7" t="s">
         <v>142</v>
@@ -2612,10 +2612,10 @@
         <v>1488621</v>
       </c>
       <c r="BC7">
-        <v>898874.8</v>
+        <v>1211941.17</v>
       </c>
       <c r="BD7">
-        <v>599011.5600000001</v>
+        <v>842625.6</v>
       </c>
       <c r="BE7" t="s">
         <v>142</v>
@@ -2624,10 +2624,10 @@
         <v>1488621</v>
       </c>
       <c r="BG7">
-        <v>1183918.8</v>
+        <v>1396475.95</v>
       </c>
       <c r="BH7">
-        <v>938700.98</v>
+        <v>1001033.71</v>
       </c>
       <c r="BI7" t="s">
         <v>142</v>
@@ -2636,10 +2636,10 @@
         <v>800000</v>
       </c>
       <c r="BK7">
-        <v>717762.74</v>
+        <v>570254.87</v>
       </c>
       <c r="BL7">
-        <v>469005.71</v>
+        <v>429108.94</v>
       </c>
       <c r="BM7" t="s">
         <v>142</v>
@@ -2648,10 +2648,10 @@
         <v>1311379</v>
       </c>
       <c r="BO7">
-        <v>1127965.27</v>
+        <v>1198022.15</v>
       </c>
       <c r="BP7">
-        <v>719435</v>
+        <v>1045480.58</v>
       </c>
       <c r="BQ7" t="s">
         <v>142</v>
@@ -2660,10 +2660,10 @@
         <v>540000</v>
       </c>
       <c r="BS7">
-        <v>449610.96</v>
+        <v>473545.86</v>
       </c>
       <c r="BT7">
-        <v>420357.77</v>
+        <v>367346.34</v>
       </c>
       <c r="BU7" t="s">
         <v>142</v>
@@ -2672,10 +2672,10 @@
         <v>540000</v>
       </c>
       <c r="BW7">
-        <v>502647.1</v>
+        <v>472102.82</v>
       </c>
       <c r="BX7">
-        <v>396707.69</v>
+        <v>374953.21</v>
       </c>
       <c r="BY7" t="s">
         <v>142</v>
@@ -2684,10 +2684,10 @@
         <v>540000</v>
       </c>
       <c r="CA7">
-        <v>380382.73</v>
+        <v>369138.81</v>
       </c>
       <c r="CB7">
-        <v>257461.08</v>
+        <v>294685.63</v>
       </c>
       <c r="CC7" t="s">
         <v>142</v>
@@ -2809,10 +2809,10 @@
         <v>370000</v>
       </c>
       <c r="AQ8">
-        <v>350274.46</v>
+        <v>285198.98</v>
       </c>
       <c r="AR8">
-        <v>314797.29</v>
+        <v>230016.97</v>
       </c>
       <c r="AS8" t="s">
         <v>142</v>
@@ -2821,10 +2821,10 @@
         <v>370000</v>
       </c>
       <c r="AU8">
-        <v>344913.78</v>
+        <v>336552.2</v>
       </c>
       <c r="AV8">
-        <v>315122.05</v>
+        <v>293454.89</v>
       </c>
       <c r="AW8" t="s">
         <v>142</v>
@@ -2833,10 +2833,10 @@
         <v>370000</v>
       </c>
       <c r="AY8">
-        <v>346000.42</v>
+        <v>302125.97</v>
       </c>
       <c r="AZ8">
-        <v>311971.25</v>
+        <v>244753.73</v>
       </c>
       <c r="BA8" t="s">
         <v>142</v>
@@ -2845,10 +2845,10 @@
         <v>370000</v>
       </c>
       <c r="BC8">
-        <v>264333.89</v>
+        <v>341190.31</v>
       </c>
       <c r="BD8">
-        <v>239573.4</v>
+        <v>282635.52</v>
       </c>
       <c r="BE8" t="s">
         <v>142</v>
@@ -2857,10 +2857,10 @@
         <v>5642860</v>
       </c>
       <c r="BG8">
-        <v>3700557.5</v>
+        <v>5292877.27</v>
       </c>
       <c r="BH8">
-        <v>2756846.41</v>
+        <v>4482985.21</v>
       </c>
       <c r="BI8" t="s">
         <v>142</v>
@@ -2869,10 +2869,10 @@
         <v>370000</v>
       </c>
       <c r="BK8">
-        <v>227947.67</v>
+        <v>256667.91</v>
       </c>
       <c r="BL8">
-        <v>202631.1</v>
+        <v>203174.27</v>
       </c>
       <c r="BM8" t="s">
         <v>142</v>
@@ -2881,10 +2881,10 @@
         <v>204000</v>
       </c>
       <c r="BO8">
-        <v>152033.57</v>
+        <v>182436.2</v>
       </c>
       <c r="BP8">
-        <v>113831.12</v>
+        <v>154324.17</v>
       </c>
       <c r="BQ8" t="s">
         <v>142</v>
@@ -2893,10 +2893,10 @@
         <v>204000</v>
       </c>
       <c r="BS8">
-        <v>123879.94</v>
+        <v>189572.08</v>
       </c>
       <c r="BT8">
-        <v>114669.22</v>
+        <v>152450.16</v>
       </c>
       <c r="BU8" t="s">
         <v>142</v>
@@ -2905,10 +2905,10 @@
         <v>204000</v>
       </c>
       <c r="BW8">
-        <v>191756.26</v>
+        <v>156743.65</v>
       </c>
       <c r="BX8">
-        <v>141474.57</v>
+        <v>131691.04</v>
       </c>
       <c r="BY8" t="s">
         <v>142</v>
@@ -2917,10 +2917,10 @@
         <v>204000</v>
       </c>
       <c r="CA8">
-        <v>168317.21</v>
+        <v>135912.48</v>
       </c>
       <c r="CB8">
-        <v>108255.89</v>
+        <v>107550.96</v>
       </c>
       <c r="CC8" t="s">
         <v>142</v>
@@ -3042,10 +3042,10 @@
         <v>393757</v>
       </c>
       <c r="AQ9">
-        <v>337849.56</v>
+        <v>332925.59</v>
       </c>
       <c r="AR9">
-        <v>272675.32</v>
+        <v>270433.86</v>
       </c>
       <c r="AS9" t="s">
         <v>142</v>
@@ -3054,10 +3054,10 @@
         <v>393757</v>
       </c>
       <c r="AU9">
-        <v>280872.34</v>
+        <v>359272.92</v>
       </c>
       <c r="AV9">
-        <v>253525</v>
+        <v>319031.26</v>
       </c>
       <c r="AW9" t="s">
         <v>142</v>
@@ -3066,10 +3066,10 @@
         <v>393757</v>
       </c>
       <c r="AY9">
-        <v>360560.92</v>
+        <v>307254.72</v>
       </c>
       <c r="AZ9">
-        <v>291437.94</v>
+        <v>221756.25</v>
       </c>
       <c r="BA9" t="s">
         <v>142</v>
@@ -3078,10 +3078,10 @@
         <v>164007</v>
       </c>
       <c r="BC9">
-        <v>101331.96</v>
+        <v>143728.69</v>
       </c>
       <c r="BD9">
-        <v>62570.22</v>
+        <v>113674.71</v>
       </c>
       <c r="BE9" t="s">
         <v>142</v>
@@ -3090,10 +3090,10 @@
         <v>164007</v>
       </c>
       <c r="BG9">
-        <v>107045.56</v>
+        <v>130264.13</v>
       </c>
       <c r="BH9">
-        <v>100676.37</v>
+        <v>105281.25</v>
       </c>
       <c r="BI9" t="s">
         <v>142</v>
@@ -3102,10 +3102,10 @@
         <v>164007</v>
       </c>
       <c r="BK9">
-        <v>130040.46</v>
+        <v>117866.72</v>
       </c>
       <c r="BL9">
-        <v>115696.41</v>
+        <v>102539.09</v>
       </c>
       <c r="BM9" t="s">
         <v>142</v>
@@ -3114,10 +3114,10 @@
         <v>164007</v>
       </c>
       <c r="BO9">
-        <v>155739.13</v>
+        <v>140428.89</v>
       </c>
       <c r="BP9">
-        <v>114757.19</v>
+        <v>121479.36</v>
       </c>
       <c r="BQ9" t="s">
         <v>142</v>
@@ -3126,10 +3126,10 @@
         <v>164007</v>
       </c>
       <c r="BS9">
-        <v>106914.31</v>
+        <v>153507.77</v>
       </c>
       <c r="BT9">
-        <v>72068.27</v>
+        <v>119980.5</v>
       </c>
       <c r="BU9" t="s">
         <v>142</v>
@@ -3138,10 +3138,10 @@
         <v>164007</v>
       </c>
       <c r="BW9">
-        <v>141880.43</v>
+        <v>118594.24</v>
       </c>
       <c r="BX9">
-        <v>90587.50999999999</v>
+        <v>83456.66</v>
       </c>
       <c r="BY9" t="s">
         <v>142</v>
@@ -3150,10 +3150,10 @@
         <v>164007</v>
       </c>
       <c r="CA9">
-        <v>110524.45</v>
+        <v>109401.83</v>
       </c>
       <c r="CB9">
-        <v>96215.38</v>
+        <v>83263.62</v>
       </c>
       <c r="CC9" t="s">
         <v>142</v>
@@ -3275,10 +3275,10 @@
         <v>18944862</v>
       </c>
       <c r="AQ10">
-        <v>12975181.94</v>
+        <v>16053387.06</v>
       </c>
       <c r="AR10">
-        <v>8326740.85</v>
+        <v>12926930.33</v>
       </c>
       <c r="AS10" t="s">
         <v>142</v>
@@ -3287,10 +3287,10 @@
         <v>18944862</v>
       </c>
       <c r="AU10">
-        <v>17692758.87</v>
+        <v>17997618.9</v>
       </c>
       <c r="AV10">
-        <v>12437275.22</v>
+        <v>12317985.8</v>
       </c>
       <c r="AW10" t="s">
         <v>142</v>
@@ -3299,10 +3299,10 @@
         <v>18944862</v>
       </c>
       <c r="AY10">
-        <v>17721307.85</v>
+        <v>13881626.69</v>
       </c>
       <c r="AZ10">
-        <v>15654184.15</v>
+        <v>9193544.42</v>
       </c>
       <c r="BA10" t="s">
         <v>142</v>
@@ -3311,10 +3311,10 @@
         <v>18944862</v>
       </c>
       <c r="BC10">
-        <v>15025622.68</v>
+        <v>14773609.58</v>
       </c>
       <c r="BD10">
-        <v>9950240.630000001</v>
+        <v>13033376.66</v>
       </c>
       <c r="BE10" t="s">
         <v>142</v>
@@ -3323,10 +3323,10 @@
         <v>18944862</v>
       </c>
       <c r="BG10">
-        <v>15907953.32</v>
+        <v>15349244.73</v>
       </c>
       <c r="BH10">
-        <v>9814374.800000001</v>
+        <v>13036650.3</v>
       </c>
       <c r="BI10" t="s">
         <v>142</v>
@@ -3335,10 +3335,10 @@
         <v>18944862</v>
       </c>
       <c r="BK10">
-        <v>12779492.94</v>
+        <v>13872982.19</v>
       </c>
       <c r="BL10">
-        <v>11391911.93</v>
+        <v>12075157.21</v>
       </c>
       <c r="BM10" t="s">
         <v>216</v>
@@ -3347,10 +3347,10 @@
         <v>18053771</v>
       </c>
       <c r="BO10">
-        <v>11358504.05</v>
+        <v>16347374.26</v>
       </c>
       <c r="BP10">
-        <v>7082365.57</v>
+        <v>12903555.42</v>
       </c>
       <c r="BQ10" t="s">
         <v>142</v>
@@ -3359,10 +3359,10 @@
         <v>17728312</v>
       </c>
       <c r="BS10">
-        <v>15708874.08</v>
+        <v>15062440.89</v>
       </c>
       <c r="BT10">
-        <v>11626961.15</v>
+        <v>12104194.45</v>
       </c>
       <c r="BU10" t="s">
         <v>142</v>
@@ -3371,10 +3371,10 @@
         <v>17728312</v>
       </c>
       <c r="BW10">
-        <v>15936470.66</v>
+        <v>13761867.91</v>
       </c>
       <c r="BX10">
-        <v>10514005.75</v>
+        <v>9779351.68</v>
       </c>
       <c r="BY10" t="s">
         <v>142</v>
@@ -3383,10 +3383,10 @@
         <v>17728312</v>
       </c>
       <c r="CA10">
-        <v>14666054.57</v>
+        <v>14504099.71</v>
       </c>
       <c r="CB10">
-        <v>12140533.34</v>
+        <v>9674097.01</v>
       </c>
       <c r="CC10" t="s">
         <v>142</v>
@@ -3517,10 +3517,10 @@
         <v>200000</v>
       </c>
       <c r="AQ11">
-        <v>152221.47</v>
+        <v>151456.55</v>
       </c>
       <c r="AR11">
-        <v>112785.62</v>
+        <v>100530.39</v>
       </c>
       <c r="AS11" t="s">
         <v>142</v>
@@ -3529,10 +3529,10 @@
         <v>200000</v>
       </c>
       <c r="AU11">
-        <v>183369.94</v>
+        <v>157091.85</v>
       </c>
       <c r="AV11">
-        <v>174036.44</v>
+        <v>129316.09</v>
       </c>
       <c r="AW11" t="s">
         <v>142</v>
@@ -3541,10 +3541,10 @@
         <v>200000</v>
       </c>
       <c r="AY11">
-        <v>185796.7</v>
+        <v>134849.04</v>
       </c>
       <c r="AZ11">
-        <v>129784.35</v>
+        <v>109021.75</v>
       </c>
       <c r="BA11" t="s">
         <v>142</v>
@@ -3553,10 +3553,10 @@
         <v>200000</v>
       </c>
       <c r="BC11">
-        <v>136955.06</v>
+        <v>161802.23</v>
       </c>
       <c r="BD11">
-        <v>91004.25999999999</v>
+        <v>120928.88</v>
       </c>
       <c r="BE11" t="s">
         <v>142</v>
@@ -3565,10 +3565,10 @@
         <v>200000</v>
       </c>
       <c r="BG11">
-        <v>153373.75</v>
+        <v>180342.71</v>
       </c>
       <c r="BH11">
-        <v>126270.68</v>
+        <v>135718.35</v>
       </c>
       <c r="BI11" t="s">
         <v>142</v>
@@ -3577,10 +3577,10 @@
         <v>200000</v>
       </c>
       <c r="BK11">
-        <v>126671.73</v>
+        <v>166088.87</v>
       </c>
       <c r="BL11">
-        <v>115159.94</v>
+        <v>132617.05</v>
       </c>
       <c r="BM11" t="s">
         <v>142</v>
@@ -3589,10 +3589,10 @@
         <v>200000</v>
       </c>
       <c r="BO11">
-        <v>168886.91</v>
+        <v>169959.02</v>
       </c>
       <c r="BP11">
-        <v>118420.56</v>
+        <v>133504.22</v>
       </c>
       <c r="BQ11" t="s">
         <v>142</v>
@@ -3601,10 +3601,10 @@
         <v>200000</v>
       </c>
       <c r="BS11">
-        <v>149771.73</v>
+        <v>149138.27</v>
       </c>
       <c r="BT11">
-        <v>103556.58</v>
+        <v>98838.95</v>
       </c>
       <c r="BU11" t="s">
         <v>142</v>
@@ -3613,10 +3613,10 @@
         <v>200000</v>
       </c>
       <c r="BW11">
-        <v>124807.54</v>
+        <v>167073.1</v>
       </c>
       <c r="BX11">
-        <v>79154.64</v>
+        <v>135209.46</v>
       </c>
       <c r="BY11" t="s">
         <v>142</v>
@@ -3625,10 +3625,10 @@
         <v>200000</v>
       </c>
       <c r="CA11">
-        <v>186544.69</v>
+        <v>135403.9</v>
       </c>
       <c r="CB11">
-        <v>155516.44</v>
+        <v>104993.91</v>
       </c>
       <c r="CC11" t="s">
         <v>142</v>
